--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Desktop\Portfolio\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8CD15-6B47-4716-949E-F548B32F70C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F90024-23D7-41CC-92FE-BB1EA0F761FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="348" windowWidth="21972" windowHeight="11796" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="11100" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="URL一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GetMapping</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HomeController</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,14 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PutMapping</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/ForecastRegistration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>forecastRegistration.html</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,6 +396,12 @@
   <si>
     <t>forecastPeriod.html</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Put</t>
   </si>
 </sst>
 </file>
@@ -569,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +580,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -594,53 +621,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,9 +943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD230A8-138E-41A3-8064-EFCA733FC9D6}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -987,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1003,268 +988,268 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
+      <c r="A2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="F11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="13"/>
+      <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
